--- a/formats/excel/MCO/2023/Formats RSA 23.xlsx
+++ b/formats/excel/MCO/2023/Formats RSA 23.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/MCO/2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0142964A\Documents\GitHub\formats_pmeasyr\formats\excel\MCO\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D0553-B75B-344D-A0BB-F6576C9FE3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26740" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26745" windowHeight="16695" tabRatio="444"/>
   </bookViews>
   <sheets>
     <sheet name="FIXE" sheetId="1" r:id="rId1"/>
     <sheet name="ZUM" sheetId="2" r:id="rId2"/>
     <sheet name="ZACTE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="185">
   <si>
     <t>position</t>
   </si>
@@ -576,13 +575,25 @@
   </si>
   <si>
     <t>ADNP75</t>
+  </si>
+  <si>
+    <t>Passage par une structure d'urgence</t>
+  </si>
+  <si>
+    <t>CDPU</t>
+  </si>
+  <si>
+    <t>TOPCTC</t>
+  </si>
+  <si>
+    <t>Top Supplément Cartcells</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -968,23 +979,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
     <col min="7" max="1019" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1015,6 +1026,7 @@
         <v>9</v>
       </c>
       <c r="D2">
+        <f>A2+C2-A3</f>
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -1024,7 +1036,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1035,6 +1047,7 @@
         <v>3</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">A3+C3-A4</f>
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -1044,7 +1057,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>13</v>
       </c>
@@ -1055,6 +1068,7 @@
         <v>10</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" t="s">
@@ -1064,7 +1078,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>23</v>
       </c>
@@ -1075,6 +1089,7 @@
         <v>3</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" t="s">
@@ -1084,7 +1099,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>26</v>
       </c>
@@ -1095,6 +1110,7 @@
         <v>3</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" t="s">
@@ -1104,7 +1120,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>29</v>
       </c>
@@ -1115,6 +1131,7 @@
         <v>2</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" t="s">
@@ -1124,7 +1141,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>31</v>
       </c>
@@ -1135,6 +1152,7 @@
         <v>2</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" t="s">
@@ -1144,7 +1162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>33</v>
       </c>
@@ -1155,6 +1173,7 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" t="s">
@@ -1164,7 +1183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>34</v>
       </c>
@@ -1175,6 +1194,7 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" t="s">
@@ -1184,7 +1204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>36</v>
       </c>
@@ -1195,6 +1215,7 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" t="s">
@@ -1204,7 +1225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>37</v>
       </c>
@@ -1215,6 +1236,7 @@
         <v>3</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" t="s">
@@ -1224,7 +1246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>40</v>
       </c>
@@ -1235,6 +1257,7 @@
         <v>2</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" t="s">
@@ -1244,7 +1267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>42</v>
       </c>
@@ -1255,6 +1278,7 @@
         <v>2</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" t="s">
@@ -1264,7 +1288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1275,6 +1299,7 @@
         <v>1</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" t="s">
@@ -1284,7 +1309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>45</v>
       </c>
@@ -1295,6 +1320,7 @@
         <v>2</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" t="s">
@@ -1304,7 +1330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>47</v>
       </c>
@@ -1315,6 +1341,7 @@
         <v>1</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" t="s">
@@ -1324,7 +1351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>48</v>
       </c>
@@ -1335,6 +1362,7 @@
         <v>3</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" t="s">
@@ -1344,7 +1372,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1355,6 +1383,7 @@
         <v>2</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" t="s">
@@ -1364,7 +1393,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>53</v>
       </c>
@@ -1375,6 +1404,7 @@
         <v>3</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" t="s">
@@ -1384,7 +1414,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>56</v>
       </c>
@@ -1395,6 +1425,7 @@
         <v>3</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" t="s">
@@ -1404,7 +1435,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>59</v>
       </c>
@@ -1415,6 +1446,7 @@
         <v>1</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" t="s">
@@ -1424,7 +1456,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>60</v>
       </c>
@@ -1435,6 +1467,7 @@
         <v>1</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" t="s">
@@ -1444,7 +1477,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>61</v>
       </c>
@@ -1455,6 +1488,7 @@
         <v>1</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" t="s">
@@ -1464,7 +1498,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>62</v>
       </c>
@@ -1475,6 +1509,7 @@
         <v>2</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" t="s">
@@ -1484,7 +1519,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>64</v>
       </c>
@@ -1495,6 +1530,7 @@
         <v>4</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" t="s">
@@ -1504,7 +1540,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>68</v>
       </c>
@@ -1515,6 +1551,7 @@
         <v>1</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" t="s">
@@ -1524,7 +1561,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>69</v>
       </c>
@@ -1535,6 +1572,7 @@
         <v>1</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" t="s">
@@ -1544,7 +1582,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>70</v>
       </c>
@@ -1555,6 +1593,7 @@
         <v>1</v>
       </c>
       <c r="D29">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" t="s">
@@ -1564,7 +1603,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>71</v>
       </c>
@@ -1575,6 +1614,7 @@
         <v>4</v>
       </c>
       <c r="D30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" t="s">
@@ -1584,7 +1624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>75</v>
       </c>
@@ -1595,6 +1635,7 @@
         <v>5</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" t="s">
@@ -1604,7 +1645,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>80</v>
       </c>
@@ -1615,6 +1656,7 @@
         <v>5</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" t="s">
@@ -1624,7 +1666,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>85</v>
       </c>
@@ -1635,6 +1677,7 @@
         <v>4</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" t="s">
@@ -1644,7 +1687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>89</v>
       </c>
@@ -1655,6 +1698,7 @@
         <v>2</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34" t="s">
@@ -1664,7 +1708,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>91</v>
       </c>
@@ -1675,6 +1719,7 @@
         <v>3</v>
       </c>
       <c r="D35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35" t="s">
@@ -1684,7 +1729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>94</v>
       </c>
@@ -1695,6 +1740,7 @@
         <v>2</v>
       </c>
       <c r="D36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36" t="s">
@@ -1704,7 +1750,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>96</v>
       </c>
@@ -1715,6 +1761,7 @@
         <v>4</v>
       </c>
       <c r="D37">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" t="s">
@@ -1724,7 +1771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>100</v>
       </c>
@@ -1735,6 +1782,7 @@
         <v>4</v>
       </c>
       <c r="D38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" t="s">
@@ -1744,7 +1792,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>104</v>
       </c>
@@ -1755,6 +1803,7 @@
         <v>1</v>
       </c>
       <c r="D39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39" t="s">
@@ -1764,7 +1813,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>105</v>
       </c>
@@ -1775,6 +1824,7 @@
         <v>3</v>
       </c>
       <c r="D40">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40" t="s">
@@ -1784,7 +1834,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>108</v>
       </c>
@@ -1795,6 +1845,7 @@
         <v>1</v>
       </c>
       <c r="D41">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41" t="s">
@@ -1804,7 +1855,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>109</v>
       </c>
@@ -1815,6 +1866,7 @@
         <v>1</v>
       </c>
       <c r="D42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" t="s">
@@ -1824,7 +1876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>110</v>
       </c>
@@ -1835,13 +1887,14 @@
         <v>1</v>
       </c>
       <c r="D43">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>111</v>
       </c>
@@ -1852,6 +1905,7 @@
         <v>1</v>
       </c>
       <c r="D44">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44" t="s">
@@ -1861,7 +1915,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>112</v>
       </c>
@@ -1872,6 +1926,7 @@
         <v>1</v>
       </c>
       <c r="D45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45" t="s">
@@ -1881,7 +1936,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>113</v>
       </c>
@@ -1892,6 +1947,7 @@
         <v>1</v>
       </c>
       <c r="D46">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46" t="s">
@@ -1901,7 +1957,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>114</v>
       </c>
@@ -1912,6 +1968,7 @@
         <v>1</v>
       </c>
       <c r="D47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47" t="s">
@@ -1921,7 +1978,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>115</v>
       </c>
@@ -1932,6 +1989,7 @@
         <v>3</v>
       </c>
       <c r="D48">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48" t="s">
@@ -1941,7 +1999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>118</v>
       </c>
@@ -1952,6 +2010,7 @@
         <v>3</v>
       </c>
       <c r="D49">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49" t="s">
@@ -1961,7 +2020,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>121</v>
       </c>
@@ -1972,6 +2031,7 @@
         <v>3</v>
       </c>
       <c r="D50">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50" t="s">
@@ -1981,7 +2041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>124</v>
       </c>
@@ -1992,6 +2052,7 @@
         <v>3</v>
       </c>
       <c r="D51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51" t="s">
@@ -2001,7 +2062,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>127</v>
       </c>
@@ -2012,6 +2073,7 @@
         <v>3</v>
       </c>
       <c r="D52">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52" t="s">
@@ -2021,7 +2083,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>130</v>
       </c>
@@ -2032,6 +2094,7 @@
         <v>3</v>
       </c>
       <c r="D53">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53" t="s">
@@ -2041,7 +2104,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>133</v>
       </c>
@@ -2052,6 +2115,7 @@
         <v>3</v>
       </c>
       <c r="D54">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54" t="s">
@@ -2061,7 +2125,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>136</v>
       </c>
@@ -2072,6 +2136,7 @@
         <v>1</v>
       </c>
       <c r="D55">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55" t="s">
@@ -2081,7 +2146,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>137</v>
       </c>
@@ -2092,6 +2157,7 @@
         <v>1</v>
       </c>
       <c r="D56">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56" t="s">
@@ -2101,7 +2167,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>138</v>
       </c>
@@ -2112,6 +2178,7 @@
         <v>1</v>
       </c>
       <c r="D57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57" t="s">
@@ -2121,7 +2188,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>139</v>
       </c>
@@ -2132,6 +2199,7 @@
         <v>4</v>
       </c>
       <c r="D58">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58" t="s">
@@ -2141,7 +2209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>143</v>
       </c>
@@ -2152,13 +2220,14 @@
         <v>8</v>
       </c>
       <c r="D59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>151</v>
       </c>
@@ -2169,6 +2238,7 @@
         <v>3</v>
       </c>
       <c r="D60">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60" t="s">
@@ -2178,7 +2248,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>154</v>
       </c>
@@ -2189,6 +2259,7 @@
         <v>1</v>
       </c>
       <c r="D61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61" t="s">
@@ -2198,7 +2269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>155</v>
       </c>
@@ -2209,6 +2280,7 @@
         <v>3</v>
       </c>
       <c r="D62">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E62" t="s">
@@ -2218,7 +2290,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>158</v>
       </c>
@@ -2229,6 +2301,7 @@
         <v>3</v>
       </c>
       <c r="D63">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63" t="s">
@@ -2238,7 +2311,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>161</v>
       </c>
@@ -2249,6 +2322,7 @@
         <v>3</v>
       </c>
       <c r="D64">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64" t="s">
@@ -2258,7 +2332,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>164</v>
       </c>
@@ -2269,6 +2343,7 @@
         <v>3</v>
       </c>
       <c r="D65">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65" t="s">
@@ -2278,7 +2353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>167</v>
       </c>
@@ -2289,6 +2364,7 @@
         <v>3</v>
       </c>
       <c r="D66">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E66" t="s">
@@ -2298,7 +2374,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>170</v>
       </c>
@@ -2309,6 +2385,7 @@
         <v>3</v>
       </c>
       <c r="D67">
+        <f t="shared" ref="D67:D92" si="1">A67+C67-A68</f>
         <v>0</v>
       </c>
       <c r="E67" t="s">
@@ -2318,7 +2395,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>173</v>
       </c>
@@ -2329,6 +2406,7 @@
         <v>3</v>
       </c>
       <c r="D68">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68" t="s">
@@ -2338,7 +2416,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>176</v>
       </c>
@@ -2349,6 +2427,7 @@
         <v>3</v>
       </c>
       <c r="D69">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69" t="s">
@@ -2358,7 +2437,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>179</v>
       </c>
@@ -2369,6 +2448,7 @@
         <v>1</v>
       </c>
       <c r="D70">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70" t="s">
@@ -2378,7 +2458,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>180</v>
       </c>
@@ -2389,6 +2469,7 @@
         <v>1</v>
       </c>
       <c r="D71">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71" t="s">
@@ -2398,7 +2479,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>181</v>
       </c>
@@ -2409,6 +2490,7 @@
         <v>1</v>
       </c>
       <c r="D72">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72" t="s">
@@ -2418,7 +2500,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>182</v>
       </c>
@@ -2429,6 +2511,7 @@
         <v>15</v>
       </c>
       <c r="D73">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73" t="s">
@@ -2438,7 +2521,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>197</v>
       </c>
@@ -2449,6 +2532,7 @@
         <v>1</v>
       </c>
       <c r="D74">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74" t="s">
@@ -2458,7 +2542,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>198</v>
       </c>
@@ -2469,6 +2553,7 @@
         <v>1</v>
       </c>
       <c r="D75">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75" t="s">
@@ -2478,7 +2563,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>199</v>
       </c>
@@ -2489,6 +2574,7 @@
         <v>1</v>
       </c>
       <c r="D76">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -2498,7 +2584,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>200</v>
       </c>
@@ -2509,6 +2595,7 @@
         <v>1</v>
       </c>
       <c r="D77">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -2518,7 +2605,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" s="1" customFormat="1">
       <c r="A78">
         <v>201</v>
       </c>
@@ -2529,6 +2616,7 @@
         <v>1</v>
       </c>
       <c r="D78">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -2538,7 +2626,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>202</v>
       </c>
@@ -2549,6 +2637,7 @@
         <v>1</v>
       </c>
       <c r="D79">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -2558,7 +2647,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>203</v>
       </c>
@@ -2569,6 +2658,7 @@
         <v>1</v>
       </c>
       <c r="D80">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -2578,7 +2668,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>204</v>
       </c>
@@ -2589,6 +2679,7 @@
         <v>1</v>
       </c>
       <c r="D81">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -2598,7 +2689,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>205</v>
       </c>
@@ -2609,6 +2700,7 @@
         <v>1</v>
       </c>
       <c r="D82">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -2618,7 +2710,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>206</v>
       </c>
@@ -2629,6 +2721,7 @@
         <v>1</v>
       </c>
       <c r="D83">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -2638,149 +2731,198 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>207</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>208</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>209</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C84" s="1">
-        <v>3</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
         <v>210</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>133</v>
       </c>
-      <c r="C85">
+      <c r="C87">
         <v>2</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="88" spans="1:6">
+      <c r="A88">
         <v>212</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>134</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <v>6</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="89" spans="1:6">
+      <c r="A89">
         <v>218</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>135</v>
       </c>
-      <c r="C87">
+      <c r="C89">
         <v>6</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="90" spans="1:6">
+      <c r="A90">
         <v>224</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>136</v>
       </c>
-      <c r="C88">
+      <c r="C90">
         <v>4</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
         <v>35</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F90" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="91" spans="1:6">
+      <c r="A91">
         <v>228</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>137</v>
       </c>
-      <c r="C89">
+      <c r="C91">
         <v>5</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
         <v>35</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F91" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="92" spans="1:6">
+      <c r="A92">
         <v>233</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
         <v>178</v>
       </c>
-      <c r="C90">
-        <v>15</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>248</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>263</v>
+      </c>
+      <c r="B93" t="s">
         <v>138</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E93" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2791,12 +2933,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1025" width="9" customWidth="1"/>
   </cols>
@@ -2807,12 +2949,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1025" width="9" customWidth="1"/>
   </cols>
